--- a/py_tian05_tennis/manully one click/W_tennis.xlsx
+++ b/py_tian05_tennis/manully one click/W_tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT117"/>
+  <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +608,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -790,7 +790,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1154,7 +1154,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -1700,7 +1700,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -1882,7 +1882,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2246,7 +2246,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2548,27 +2548,27 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -2588,17 +2588,17 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2730,37 +2730,37 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -2912,17 +2912,17 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -2942,22 +2942,22 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
@@ -2974,7 +2974,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3094,22 +3094,22 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -3124,27 +3124,27 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3438,17 +3438,17 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -3458,17 +3458,17 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -3488,17 +3488,17 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -3650,17 +3650,17 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -3680,17 +3680,17 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -3884,7 +3884,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4049,12 +4049,12 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4186,17 +4186,17 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -4338,12 +4338,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
@@ -4430,7 +4430,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4732,12 +4732,12 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -4794,7 +4794,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/22(月)  </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/22(月)  </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/22(月)  </t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -4874,97 +4874,97 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/9(火)  </t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/9(火)  </t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/9(火)  </t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -4976,7 +4976,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -5096,12 +5096,12 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5178,122 +5178,122 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/24(水)  </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/24(水)  </t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/24(水)  </t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/24(水)  </t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/11(木)  </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/11(木)  </t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/11(木)  </t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/11(木)  </t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
@@ -5308,22 +5308,22 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
@@ -5340,7 +5340,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5400,117 +5400,117 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/25(木)  </t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/12(金)  </t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/25(木)  </t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/12(金)  </t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/25(木)  </t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/12(金)  </t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -5522,7 +5522,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -5642,17 +5642,17 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -5886,7 +5886,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6068,12 +6068,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -6203,37 +6203,37 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/29(月)  </t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/16(火)  </t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
@@ -6250,7 +6250,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -6400,576 +6400,30 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AR34" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7132,7 +6586,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -7162,7 +6616,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7192,7 +6646,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -7222,7 +6676,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -7252,7 +6706,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -7284,7 +6738,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -7314,7 +6768,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7339,12 +6793,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -7369,12 +6823,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -7404,7 +6858,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
@@ -7419,24 +6873,24 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -7456,7 +6910,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7466,7 +6920,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7486,17 +6940,17 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -7521,12 +6975,12 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -7541,7 +6995,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -7551,12 +7005,12 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
@@ -7571,7 +7025,7 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
@@ -7581,14 +7035,14 @@
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7613,12 +7067,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7633,22 +7087,22 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -7658,12 +7112,12 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -7673,12 +7127,12 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -7688,27 +7142,27 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
@@ -7733,14 +7187,14 @@
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7765,12 +7219,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7790,17 +7244,17 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -7820,17 +7274,17 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -7850,17 +7304,17 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
@@ -7880,19 +7334,19 @@
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -7917,12 +7371,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -7952,7 +7406,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -7967,7 +7421,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -7982,7 +7436,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -7997,12 +7451,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -8012,7 +7466,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -8022,7 +7476,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
@@ -8044,7 +7498,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8064,17 +7518,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8094,17 +7548,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -8119,22 +7573,22 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -8149,22 +7603,22 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
@@ -8174,7 +7628,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -8184,19 +7638,19 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8226,7 +7680,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -8256,7 +7710,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -8286,7 +7740,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -8316,7 +7770,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -8348,7 +7802,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8368,17 +7822,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -8398,17 +7852,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -8428,17 +7882,17 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -8458,17 +7912,17 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
@@ -8483,7 +7937,7 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
@@ -8493,14 +7947,14 @@
       </c>
       <c r="AL51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8525,12 +7979,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -8550,17 +8004,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -8575,7 +8029,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -8585,12 +8039,12 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -8600,12 +8054,12 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -8615,12 +8069,12 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
@@ -8630,29 +8084,29 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8672,17 +8126,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -8697,22 +8151,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -8727,7 +8181,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -8742,7 +8196,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -8757,12 +8211,12 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
@@ -8772,17 +8226,17 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -8792,7 +8246,7 @@
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL53" t="inlineStr">
@@ -8804,7 +8258,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8814,7 +8268,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -8834,7 +8288,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8844,27 +8298,27 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -8874,27 +8328,27 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -8904,12 +8358,12 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -8924,7 +8378,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
@@ -8956,7 +8410,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8986,7 +8440,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -9006,17 +8460,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -9031,22 +8485,22 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -9061,22 +8515,22 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
@@ -9086,12 +8540,12 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
@@ -9108,7 +8562,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -9138,7 +8592,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -9148,7 +8602,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -9168,7 +8622,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -9178,27 +8632,27 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -9208,27 +8662,27 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
@@ -9248,19 +8702,19 @@
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -9290,7 +8744,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -9320,7 +8774,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -9350,7 +8804,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -9380,7 +8834,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
@@ -9412,7 +8866,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -9442,7 +8896,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -9472,7 +8926,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -9502,7 +8956,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -9517,22 +8971,22 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
@@ -9547,176 +9001,51 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL59" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -9741,12 +9070,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -9771,12 +9100,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -9806,7 +9135,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -9836,12 +9165,12 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr">
@@ -9868,7 +9197,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -9898,7 +9227,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -9908,7 +9237,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -9918,17 +9247,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -9938,7 +9267,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -9948,27 +9277,27 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -9978,17 +9307,17 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
@@ -10008,7 +9337,7 @@
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL61" t="inlineStr">
@@ -10020,7 +9349,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -10035,22 +9364,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -10070,17 +9399,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -10090,7 +9419,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -10110,7 +9439,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -10120,17 +9449,17 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
@@ -10140,7 +9469,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
@@ -10160,7 +9489,7 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr">
@@ -10172,7 +9501,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -10192,17 +9521,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -10212,7 +9541,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -10232,7 +9561,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -10262,7 +9591,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -10277,7 +9606,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -10292,17 +9621,17 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr">
@@ -10312,19 +9641,19 @@
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -10354,7 +9683,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -10384,7 +9713,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -10399,22 +9728,22 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -10429,27 +9758,27 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
@@ -10464,19 +9793,19 @@
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL64" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -10506,7 +9835,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -10536,7 +9865,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -10551,7 +9880,7 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -10566,7 +9895,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -10581,12 +9910,12 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
@@ -10596,7 +9925,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
@@ -10611,12 +9940,12 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL65" t="inlineStr">
@@ -10628,7 +9957,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -10658,7 +9987,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -10688,7 +10017,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -10708,17 +10037,17 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -10743,22 +10072,22 @@
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ66" t="inlineStr">
@@ -10773,14 +10102,14 @@
       </c>
       <c r="AL66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/22(月)  </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -10795,127 +10124,127 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/10(水)  </t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="AH67" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/10(水)  </t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/10(水)  </t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/10(水)  </t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
@@ -10932,7 +10261,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -10952,17 +10281,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -10992,7 +10321,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -11022,7 +10351,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -11052,7 +10381,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
@@ -11062,29 +10391,29 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -11104,17 +10433,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -11124,27 +10453,27 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -11154,62 +10483,62 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/24(水)  </t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/12(金)  </t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AB69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/24(水)  </t>
+        </is>
+      </c>
+      <c r="AH69" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/12(金)  </t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr">
@@ -11236,7 +10565,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -11261,12 +10590,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -11286,7 +10615,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11296,7 +10625,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -11311,7 +10640,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -11326,7 +10655,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -11341,7 +10670,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -11356,7 +10685,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
@@ -11376,19 +10705,19 @@
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -11408,17 +10737,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -11438,17 +10767,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -11463,22 +10792,22 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -11493,32 +10822,32 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr">
@@ -11528,46 +10857,171 @@
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
+        </is>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -11592,12 +11046,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -11622,12 +11076,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -11657,7 +11111,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -11687,12 +11141,12 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -11719,7 +11173,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -11734,7 +11188,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11744,122 +11198,122 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/29(月)  </t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/16(火)  </t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/29(月)  </t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/29(月)  </t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/16(火)  </t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
+      <c r="AA74" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="AD74" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/16(火)  </t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/29(月)  </t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AA74" t="inlineStr">
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AG74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/16(火)  </t>
-        </is>
-      </c>
-      <c r="AH74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI74" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK74" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="AL74" t="inlineStr">
@@ -11871,7 +11325,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -11886,22 +11340,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -11911,7 +11365,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -11921,17 +11375,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -11946,533 +11400,77 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/30(火)  </t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/17(水)  </t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/30(火)  </t>
+        </is>
+      </c>
+      <c r="AH75" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AI75" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL75" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="AG75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/17(水)  </t>
-        </is>
-      </c>
-      <c r="AH75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI75" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL75" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="AH76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AI76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AG77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AI77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="AH78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL78" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
     </row>
@@ -12589,7 +11587,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -12624,7 +11622,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -12659,7 +11657,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -12696,7 +11694,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -12731,7 +11729,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -12766,7 +11764,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -12803,7 +11801,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -12838,7 +11836,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -12858,12 +11856,12 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -12873,7 +11871,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -12893,12 +11891,12 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -12910,7 +11908,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -12945,7 +11943,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -12970,17 +11968,17 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -13010,14 +12008,14 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -13042,7 +12040,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -13052,7 +12050,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -13087,7 +12085,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -13124,7 +12122,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -13159,7 +12157,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -13184,7 +12182,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -13194,7 +12192,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -13231,7 +12229,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -13266,7 +12264,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -13301,7 +12299,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -13338,7 +12336,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -13373,7 +12371,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -13408,7 +12406,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -13445,7 +12443,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -13480,7 +12478,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -13515,7 +12513,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -13540,7 +12538,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -13552,12 +12550,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -13577,7 +12575,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13587,12 +12585,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -13622,12 +12620,12 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -13647,7 +12645,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -13659,7 +12657,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -13694,12 +12692,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -13709,7 +12707,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -13719,7 +12717,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -13729,12 +12727,12 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -13744,7 +12742,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -13754,7 +12752,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -13766,7 +12764,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13791,7 +12789,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -13801,7 +12799,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -13811,7 +12809,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -13826,17 +12824,17 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -13856,12 +12854,12 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -13873,7 +12871,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13888,7 +12886,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -13898,7 +12896,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -13908,12 +12906,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -13933,7 +12931,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -13943,17 +12941,17 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -13980,7 +12978,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -14015,7 +13013,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -14050,7 +13048,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -14087,7 +13085,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -14122,7 +13120,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -14157,7 +13155,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -14194,7 +13192,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -14214,7 +13212,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -14229,7 +13227,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -14249,12 +13247,12 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -14264,7 +13262,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/1(月)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -14284,12 +13282,12 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -14301,7 +13299,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -14311,7 +13309,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -14336,7 +13334,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -14361,7 +13359,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -14371,7 +13369,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/2(火)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -14396,7 +13394,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -14408,7 +13406,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -14443,12 +13441,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -14468,7 +13466,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -14478,12 +13476,12 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/3(水)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
@@ -14515,7 +13513,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14550,7 +13548,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -14560,7 +13558,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -14575,7 +13573,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -14585,7 +13583,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/4(木)  </t>
+          <t xml:space="preserve">11/17(水)  </t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -14595,12 +13593,12 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
@@ -14610,7 +13608,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -14622,12 +13620,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -14647,7 +13645,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -14657,7 +13655,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -14672,7 +13670,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -14682,7 +13680,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -14692,12 +13690,12 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/5(金)  </t>
+          <t xml:space="preserve">11/18(木)  </t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -14729,7 +13727,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14764,7 +13762,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -14774,7 +13772,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -14799,7 +13797,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/6(土)  </t>
+          <t xml:space="preserve">11/19(金)  </t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -14836,7 +13834,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14871,7 +13869,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -14906,7 +13904,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/7(日)  </t>
+          <t xml:space="preserve">11/20(土)  </t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -14943,7 +13941,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14958,7 +13956,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -14978,7 +13976,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -15003,7 +14001,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -15013,7 +14011,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/8(月)  </t>
+          <t xml:space="preserve">11/21(日)  </t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -15023,7 +14021,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -15050,7 +14048,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/22(月)  </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -15085,7 +14083,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/9(火)  </t>
+          <t xml:space="preserve">11/22(月)  </t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -15110,24 +14108,24 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/22(月)  </t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/9(火)  </t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="U106" t="inlineStr">
         <is>
           <t>X</t>
@@ -15135,7 +14133,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
@@ -15145,7 +14143,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -15157,7 +14155,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -15192,7 +14190,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -15227,12 +14225,12 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/10(水)  </t>
+          <t xml:space="preserve">11/23(火)  </t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -15242,7 +14240,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
@@ -15264,7 +14262,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -15289,7 +14287,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -15299,7 +14297,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -15324,7 +14322,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -15334,7 +14332,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/11(木)  </t>
+          <t xml:space="preserve">11/24(水)  </t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -15371,7 +14369,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15396,7 +14394,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -15406,7 +14404,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -15431,7 +14429,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -15441,12 +14439,12 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/12(金)  </t>
+          <t xml:space="preserve">11/25(木)  </t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -15466,7 +14464,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -15478,12 +14476,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -15513,7 +14511,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -15548,7 +14546,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/13(土)  </t>
+          <t xml:space="preserve">11/26(金)  </t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -15585,7 +14583,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -15620,7 +14618,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -15655,7 +14653,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/14(日)  </t>
+          <t xml:space="preserve">11/27(土)  </t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -15692,7 +14690,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15727,7 +14725,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -15762,7 +14760,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/15(月)  </t>
+          <t xml:space="preserve">11/28(日)  </t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -15799,7 +14797,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -15834,7 +14832,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/16(火)  </t>
+          <t xml:space="preserve">11/29(月)  </t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -15849,47 +14847,47 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/29(月)  </t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/16(火)  </t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
@@ -15906,7 +14904,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15941,12 +14939,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -15966,7 +14964,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -15976,7 +14974,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t xml:space="preserve">11/17(水)  </t>
+          <t xml:space="preserve">11/30(火)  </t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -16005,327 +15003,6 @@
         </is>
       </c>
       <c r="Y114" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/18(木)  </t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/19(金)  </t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11/20(土)  </t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
         <is>
           <t>X</t>
         </is>
